--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -58,159 +61,156 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>wife</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -223,46 +223,49 @@
     <t>well</t>
   </si>
   <si>
-    <t>big</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>time</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -634,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,16 +719,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2403100775193799</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,71 +766,95 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="L4">
+        <v>89</v>
+      </c>
+      <c r="M4">
+        <v>89</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.90625</v>
+      </c>
+      <c r="L5">
+        <v>116</v>
+      </c>
+      <c r="M5">
+        <v>116</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>12</v>
-      </c>
-      <c r="K4">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="L4">
-        <v>88</v>
-      </c>
-      <c r="M4">
-        <v>88</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>0.890625</v>
-      </c>
-      <c r="L5">
-        <v>114</v>
-      </c>
-      <c r="M5">
-        <v>114</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,21 +866,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8436532507739938</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L7">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M7">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,21 +918,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +944,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -974,16 +1001,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6926406926406926</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6623376623376623</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6571428571428571</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6271186440677966</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L16">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6235955056179775</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L17">
-        <v>777</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>777</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,47 +1152,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>469</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>26</v>
-      </c>
-      <c r="K18">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L18">
-        <v>24</v>
-      </c>
-      <c r="M18">
-        <v>24</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6111111111111112</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5918367346938775</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>770</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>770</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5882352941176471</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5714285714285714</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5692307692307692</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5614035087719298</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5384615384615384</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.53125</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5089820359281437</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L29">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4819277108433735</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4615384615384616</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4511278195488722</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L34">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4444444444444444</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1593,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1619,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.42</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4098360655737705</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1671,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4078947368421053</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1697,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3950617283950617</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1723,47 +1750,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>0.3552631578947368</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>49</v>
-      </c>
-      <c r="K41">
-        <v>0.3815789473684211</v>
-      </c>
-      <c r="L41">
-        <v>29</v>
-      </c>
-      <c r="M41">
-        <v>29</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3795180722891566</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L42">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1775,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3676470588235294</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1801,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3657587548638132</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L44">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M44">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1827,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3602941176470588</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L45">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1853,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>261</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3423423423423423</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1879,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>73</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.316546762589928</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1905,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3157894736842105</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1931,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2777777777777778</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1957,15 +1984,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2673267326732673</v>
+        <v>0.25</v>
       </c>
       <c r="L50">
         <v>27</v>
@@ -1983,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2561643835616438</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L51">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2009,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>543</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2488038277511962</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2035,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2381465517241379</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L53">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M53">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2058,18 +2085,18 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2380952380952381</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L54">
         <v>25</v>
@@ -2087,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2185430463576159</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2113,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2110091743119266</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2139,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>86</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2037617554858934</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L57">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2165,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>254</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.174496644295302</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2191,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>123</v>
+        <v>624</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1735099337748344</v>
+        <v>0.1560102301790281</v>
       </c>
       <c r="L59">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M59">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2217,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>624</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1675191815856777</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L60">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2243,47 +2270,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>651</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1515151515151515</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>140</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.121654501216545</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L62">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2295,47 +2322,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>361</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1135135135135135</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L63">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>328</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1090909090909091</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2347,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1065292096219931</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2373,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>260</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.09663865546218488</v>
+        <v>0.09772727272727273</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2399,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>215</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.0962962962962963</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2425,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>244</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.09225092250922509</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2451,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.08771929824561403</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L69">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2477,73 +2504,73 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>416</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.07360406091370558</v>
+        <v>0.07890961262553801</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>365</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K71">
-        <v>0.07173601147776183</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>647</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>0.07159904534606205</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L72">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M72">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2555,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>389</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K73">
-        <v>0.05037313432835821</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L73">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2581,59 +2608,59 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1018</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74">
-        <v>0.04981549815498155</v>
+        <v>0.04606525911708254</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K75">
-        <v>0.02508650519031142</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="L75">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N75">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
